--- a/REGULAR/ONT/VILLAPANDO JENITA.xlsx
+++ b/REGULAR/ONT/VILLAPANDO JENITA.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\ONT\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B33DB6C7-226F-4343-9186-9D94AC887F72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="536" uniqueCount="310">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="538" uniqueCount="312">
   <si>
     <t>PERIOD</t>
   </si>
@@ -974,11 +975,17 @@
   <si>
     <t>9/11-15, 18-20/2023</t>
   </si>
+  <si>
+    <t>VL(7-0-0)</t>
+  </si>
+  <si>
+    <t>11/13-17, 20-21/2023</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1653,7 +1660,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -1670,25 +1677,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K511" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1995,34 +2002,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:K511"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="2100" topLeftCell="A449" activePane="bottomLeft"/>
-      <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="E465" sqref="E465"/>
+      <pane ySplit="2100" topLeftCell="A452" activePane="bottomLeft"/>
+      <selection activeCell="E6" sqref="E6"/>
+      <selection pane="bottomLeft" activeCell="N459" sqref="N459"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -2045,7 +2052,7 @@
       <c r="J2" s="52"/>
       <c r="K2" s="53"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -2067,7 +2074,7 @@
       <c r="J3" s="54"/>
       <c r="K3" s="55"/>
     </row>
-    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -2089,7 +2096,7 @@
       <c r="J4" s="52"/>
       <c r="K4" s="53"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -2097,7 +2104,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2110,7 +2117,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="50" t="s">
@@ -2127,7 +2134,7 @@
       <c r="J7" s="50"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2162,7 +2169,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -2171,7 +2178,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>162.36180000000002</v>
+        <v>159.11180000000002</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2181,12 +2188,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269</v>
+        <v>272.75</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="48" t="s">
         <v>59</v>
       </c>
@@ -2205,7 +2212,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="23">
         <v>36161</v>
       </c>
@@ -2229,7 +2236,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="23">
         <f>EDATE(A11,1)</f>
         <v>36192</v>
@@ -2256,7 +2263,7 @@
         <v>36252</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="23"/>
       <c r="B13" s="20" t="s">
         <v>164</v>
@@ -2276,7 +2283,7 @@
         <v>167</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>110</v>
@@ -2296,7 +2303,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="23"/>
       <c r="B15" s="20" t="s">
         <v>165</v>
@@ -2316,7 +2323,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="23">
         <f>EDATE(A12,1)</f>
         <v>36220</v>
@@ -2343,7 +2350,7 @@
         <v>36163</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>110</v>
@@ -2365,7 +2372,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>112</v>
@@ -2385,7 +2392,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="23"/>
       <c r="B19" s="20" t="s">
         <v>166</v>
@@ -2405,7 +2412,7 @@
       <c r="J19" s="11"/>
       <c r="K19" s="20"/>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="23">
         <f>EDATE(A16,1)</f>
         <v>36251</v>
@@ -2432,7 +2439,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>147</v>
@@ -2451,7 +2458,7 @@
         <v>172</v>
       </c>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="23"/>
       <c r="B22" s="20" t="s">
         <v>166</v>
@@ -2468,7 +2475,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>112</v>
@@ -2485,7 +2492,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="23">
         <f>EDATE(A20,1)</f>
         <v>36281</v>
@@ -2512,7 +2519,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="23"/>
       <c r="B25" s="20" t="s">
         <v>147</v>
@@ -2531,7 +2538,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>130</v>
@@ -2548,7 +2555,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="23"/>
       <c r="B27" s="20" t="s">
         <v>110</v>
@@ -2570,7 +2577,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="23"/>
       <c r="B28" s="20" t="s">
         <v>112</v>
@@ -2590,7 +2597,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="23">
         <v>36312</v>
       </c>
@@ -2614,7 +2621,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="23">
         <f>EDATE(A29,1)</f>
         <v>36342</v>
@@ -2638,7 +2645,7 @@
         <v>154</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>110</v>
@@ -2660,7 +2667,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="23"/>
       <c r="B32" s="20" t="s">
         <v>148</v>
@@ -2680,7 +2687,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="23">
         <f>EDATE(A30,1)</f>
         <v>36373</v>
@@ -2709,7 +2716,7 @@
         <v>156</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>147</v>
@@ -2731,7 +2738,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="23">
         <f>EDATE(A33,1)</f>
         <v>36404</v>
@@ -2758,7 +2765,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="23"/>
       <c r="B36" s="20" t="s">
         <v>150</v>
@@ -2780,7 +2787,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="23"/>
       <c r="B37" s="20" t="s">
         <v>110</v>
@@ -2802,7 +2809,7 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>151</v>
@@ -2822,7 +2829,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="23">
         <f>EDATE(A35,1)</f>
         <v>36434</v>
@@ -2849,7 +2856,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="23"/>
       <c r="B40" s="20" t="s">
         <v>147</v>
@@ -2871,7 +2878,7 @@
         <v>162</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="23">
         <f>EDATE(A39,1)</f>
         <v>36465</v>
@@ -2892,7 +2899,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="23">
         <f t="shared" ref="A42:A141" si="0">EDATE(A41,1)</f>
         <v>36495</v>
@@ -2919,7 +2926,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="48" t="s">
         <v>60</v>
       </c>
@@ -2943,7 +2950,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="23">
         <f>EDATE(A42,1)</f>
         <v>36526</v>
@@ -2970,7 +2977,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="23"/>
       <c r="B45" s="20" t="s">
         <v>152</v>
@@ -2990,7 +2997,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="23"/>
       <c r="B46" s="20" t="s">
         <v>178</v>
@@ -3010,7 +3017,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>112</v>
@@ -3030,7 +3037,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="23">
         <f>EDATE(A44,1)</f>
         <v>36557</v>
@@ -3051,7 +3058,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="23">
         <f t="shared" si="0"/>
         <v>36586</v>
@@ -3072,7 +3079,7 @@
       <c r="J49" s="11"/>
       <c r="K49" s="20"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="23">
         <f>EDATE(A49,1)</f>
         <v>36617</v>
@@ -3097,7 +3104,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>112</v>
@@ -3114,7 +3121,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="23">
         <f>EDATE(A50,1)</f>
         <v>36647</v>
@@ -3135,7 +3142,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="23">
         <f t="shared" si="0"/>
         <v>36678</v>
@@ -3156,7 +3163,7 @@
       <c r="J53" s="11"/>
       <c r="K53" s="20"/>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="23">
         <f t="shared" si="0"/>
         <v>36708</v>
@@ -3183,7 +3190,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="23">
         <f t="shared" si="0"/>
         <v>36739</v>
@@ -3204,7 +3211,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="23">
         <f t="shared" si="0"/>
         <v>36770</v>
@@ -3231,7 +3238,7 @@
         <v>36625</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>112</v>
@@ -3251,7 +3258,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="23">
         <f>EDATE(A56,1)</f>
         <v>36800</v>
@@ -3272,7 +3279,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="23">
         <f t="shared" si="0"/>
         <v>36831</v>
@@ -3293,7 +3300,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="23">
         <f t="shared" si="0"/>
         <v>36861</v>
@@ -3320,7 +3327,7 @@
         <v>36750</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="23"/>
       <c r="B61" s="20" t="s">
         <v>185</v>
@@ -3337,7 +3344,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="49"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="48" t="s">
         <v>61</v>
       </c>
@@ -3361,7 +3368,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="23">
         <f>EDATE(A60,1)</f>
         <v>36892</v>
@@ -3388,7 +3395,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>112</v>
@@ -3405,7 +3412,7 @@
         <v>186</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="23">
         <f>EDATE(A63,1)</f>
         <v>36923</v>
@@ -3426,7 +3433,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="23">
         <f t="shared" si="0"/>
         <v>36951</v>
@@ -3451,7 +3458,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="23"/>
       <c r="B67" s="20" t="s">
         <v>112</v>
@@ -3468,7 +3475,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="23">
         <f>EDATE(A66,1)</f>
         <v>36982</v>
@@ -3495,7 +3502,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>100</v>
@@ -3512,7 +3519,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="23">
         <f>EDATE(A68,1)</f>
         <v>37012</v>
@@ -3539,7 +3546,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="23">
         <f t="shared" si="0"/>
         <v>37043</v>
@@ -3564,7 +3571,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="23">
         <f t="shared" si="0"/>
         <v>37073</v>
@@ -3591,7 +3598,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>150</v>
@@ -3610,7 +3617,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>110</v>
@@ -3629,7 +3636,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="23">
         <f>EDATE(A72,1)</f>
         <v>37104</v>
@@ -3650,7 +3657,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="23">
         <f t="shared" si="0"/>
         <v>37135</v>
@@ -3677,7 +3684,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="23">
         <f t="shared" si="0"/>
         <v>37165</v>
@@ -3704,7 +3711,7 @@
         <v>37144</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>147</v>
@@ -3726,7 +3733,7 @@
         <v>199</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>197</v>
@@ -3746,7 +3753,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="23">
         <f>EDATE(A77,1)</f>
         <v>37196</v>
@@ -3773,7 +3780,7 @@
         <v>36962</v>
       </c>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="23"/>
       <c r="B81" s="20" t="s">
         <v>198</v>
@@ -3793,7 +3800,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="23">
         <f>EDATE(A80,1)</f>
         <v>37226</v>
@@ -3814,7 +3821,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="48" t="s">
         <v>62</v>
       </c>
@@ -3838,7 +3845,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="23">
         <f>EDATE(A82,1)</f>
         <v>37257</v>
@@ -3863,7 +3870,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="23">
         <f t="shared" si="0"/>
         <v>37288</v>
@@ -3890,7 +3897,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>201</v>
@@ -3910,7 +3917,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="23">
         <f>EDATE(A85,1)</f>
         <v>37316</v>
@@ -3935,7 +3942,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>112</v>
@@ -3955,7 +3962,7 @@
         <v>205</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="23">
         <f>EDATE(A87,1)</f>
         <v>37347</v>
@@ -3982,7 +3989,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="23"/>
       <c r="B90" s="20" t="s">
         <v>110</v>
@@ -4004,7 +4011,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="23">
         <f>EDATE(A89,1)</f>
         <v>37377</v>
@@ -4031,7 +4038,7 @@
         <v>37504</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>150</v>
@@ -4053,7 +4060,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="23"/>
       <c r="B93" s="20" t="s">
         <v>152</v>
@@ -4075,7 +4082,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="23"/>
       <c r="B94" s="20" t="s">
         <v>112</v>
@@ -4095,7 +4102,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="23">
         <f>EDATE(A91,1)</f>
         <v>37408</v>
@@ -4116,7 +4123,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="20"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="23">
         <f t="shared" si="0"/>
         <v>37438</v>
@@ -4137,7 +4144,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="23">
         <f t="shared" si="0"/>
         <v>37469</v>
@@ -4164,7 +4171,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="23">
         <f t="shared" si="0"/>
         <v>37500</v>
@@ -4185,7 +4192,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="23">
         <f t="shared" si="0"/>
         <v>37530</v>
@@ -4206,7 +4213,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="23">
         <f t="shared" si="0"/>
         <v>37561</v>
@@ -4231,7 +4238,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="23">
         <f t="shared" si="0"/>
         <v>37591</v>
@@ -4252,7 +4259,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="48" t="s">
         <v>63</v>
       </c>
@@ -4276,7 +4283,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="23">
         <f>EDATE(A101,1)</f>
         <v>37622</v>
@@ -4303,7 +4310,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="23"/>
       <c r="B104" s="20" t="s">
         <v>213</v>
@@ -4323,7 +4330,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="23">
         <f>EDATE(A103,1)</f>
         <v>37653</v>
@@ -4346,7 +4353,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="23">
         <f t="shared" si="0"/>
         <v>37681</v>
@@ -4367,7 +4374,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="23">
         <f t="shared" si="0"/>
         <v>37712</v>
@@ -4394,7 +4401,7 @@
         <v>37684</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>134</v>
@@ -4416,7 +4423,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>215</v>
@@ -4436,7 +4443,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="23">
         <f>EDATE(A107,1)</f>
         <v>37742</v>
@@ -4463,7 +4470,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>185</v>
@@ -4481,7 +4488,7 @@
       <c r="J111" s="11"/>
       <c r="K111" s="20"/>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="23">
         <f>EDATE(A110,1)</f>
         <v>37773</v>
@@ -4502,7 +4509,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="23">
         <f t="shared" si="0"/>
         <v>37803</v>
@@ -4523,7 +4530,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="23">
         <f t="shared" si="0"/>
         <v>37834</v>
@@ -4550,7 +4557,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="23">
         <f t="shared" si="0"/>
         <v>37865</v>
@@ -4577,7 +4584,7 @@
         <v>37903</v>
       </c>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="23">
         <f t="shared" si="0"/>
         <v>37895</v>
@@ -4598,7 +4605,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="23">
         <f t="shared" si="0"/>
         <v>37926</v>
@@ -4625,7 +4632,7 @@
         <v>37691</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>79</v>
@@ -4647,7 +4654,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>112</v>
@@ -4667,7 +4674,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="23">
         <f>EDATE(A117,1)</f>
         <v>37956</v>
@@ -4694,7 +4701,7 @@
         <v>37692</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>147</v>
@@ -4716,7 +4723,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="23"/>
       <c r="B122" s="20" t="s">
         <v>219</v>
@@ -4736,7 +4743,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="48" t="s">
         <v>64</v>
       </c>
@@ -4760,7 +4767,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="23">
         <f>EDATE(A120,1)</f>
         <v>37987</v>
@@ -4787,7 +4794,7 @@
         <v>38169</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>110</v>
@@ -4809,7 +4816,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="23"/>
       <c r="B126" s="20" t="s">
         <v>112</v>
@@ -4829,7 +4836,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="23">
         <f>EDATE(A124,1)</f>
         <v>38018</v>
@@ -4856,7 +4863,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="23">
         <f t="shared" si="0"/>
         <v>38047</v>
@@ -4883,7 +4890,7 @@
         <v>37989</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>110</v>
@@ -4902,7 +4909,7 @@
         <v>38202</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="23"/>
       <c r="B130" s="20" t="s">
         <v>147</v>
@@ -4919,7 +4926,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="23"/>
       <c r="B131" s="20" t="s">
         <v>112</v>
@@ -4936,7 +4943,7 @@
         <v>228</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>166</v>
@@ -4953,7 +4960,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="23">
         <f>EDATE(A128,1)</f>
         <v>38078</v>
@@ -4980,7 +4987,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>130</v>
@@ -5000,7 +5007,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>112</v>
@@ -5020,7 +5027,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="23">
         <f>EDATE(A133,1)</f>
         <v>38108</v>
@@ -5047,7 +5054,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="23">
         <f t="shared" si="0"/>
         <v>38139</v>
@@ -5074,7 +5081,7 @@
         <v>232</v>
       </c>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="23"/>
       <c r="B138" s="20" t="s">
         <v>130</v>
@@ -5094,7 +5101,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="23">
         <f>EDATE(A137,1)</f>
         <v>38169</v>
@@ -5121,7 +5128,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="23">
         <f>EDATE(A139,1)</f>
         <v>38200</v>
@@ -5148,7 +5155,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="23">
         <f t="shared" si="0"/>
         <v>38231</v>
@@ -5175,7 +5182,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>110</v>
@@ -5197,7 +5204,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="23"/>
       <c r="B143" s="20" t="s">
         <v>110</v>
@@ -5219,7 +5226,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="23">
         <f>EDATE(A141,1)</f>
         <v>38261</v>
@@ -5246,7 +5253,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="23"/>
       <c r="B145" s="20" t="s">
         <v>227</v>
@@ -5266,7 +5273,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="23">
         <f>EDATE(A144,1)</f>
         <v>38292</v>
@@ -5293,7 +5300,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="23">
         <f t="shared" ref="A147:A286" si="1">EDATE(A146,1)</f>
         <v>38322</v>
@@ -5314,7 +5321,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="48" t="s">
         <v>65</v>
       </c>
@@ -5338,7 +5345,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="23">
         <f>EDATE(A147,1)</f>
         <v>38353</v>
@@ -5363,7 +5370,7 @@
         <v>242</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="23"/>
       <c r="B150" s="20" t="s">
         <v>112</v>
@@ -5380,7 +5387,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="23">
         <f>EDATE(A149,1)</f>
         <v>38384</v>
@@ -5401,7 +5408,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="23">
         <f t="shared" si="1"/>
         <v>38412</v>
@@ -5426,7 +5433,7 @@
       <c r="J152" s="11"/>
       <c r="K152" s="20"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="23">
         <f t="shared" si="1"/>
         <v>38443</v>
@@ -5447,7 +5454,7 @@
       <c r="J153" s="11"/>
       <c r="K153" s="20"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="23">
         <f t="shared" si="1"/>
         <v>38473</v>
@@ -5474,7 +5481,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="23"/>
       <c r="B155" s="20" t="s">
         <v>110</v>
@@ -5496,7 +5503,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="23"/>
       <c r="B156" s="20" t="s">
         <v>112</v>
@@ -5516,7 +5523,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>239</v>
@@ -5536,7 +5543,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="23">
         <f>EDATE(A154,1)</f>
         <v>38504</v>
@@ -5563,7 +5570,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>110</v>
@@ -5583,7 +5590,7 @@
       <c r="J159" s="11"/>
       <c r="K159" s="20"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>110</v>
@@ -5605,7 +5612,7 @@
         <v>38631</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>240</v>
@@ -5627,7 +5634,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>241</v>
@@ -5647,7 +5654,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A163" s="23">
         <f>EDATE(A158,1)</f>
         <v>38534</v>
@@ -5674,7 +5681,7 @@
         <v>38663</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>110</v>
@@ -5696,7 +5703,7 @@
         <v>38540</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A165" s="23">
         <f>EDATE(A163,1)</f>
         <v>38565</v>
@@ -5723,7 +5730,7 @@
         <v>251</v>
       </c>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A166" s="23"/>
       <c r="B166" s="20" t="s">
         <v>110</v>
@@ -5745,7 +5752,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A167" s="23"/>
       <c r="B167" s="20" t="s">
         <v>135</v>
@@ -5767,7 +5774,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A168" s="23"/>
       <c r="B168" s="20" t="s">
         <v>110</v>
@@ -5789,7 +5796,7 @@
         <v>254</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>249</v>
@@ -5809,7 +5816,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A170" s="23">
         <f>EDATE(A165,1)</f>
         <v>38596</v>
@@ -5836,7 +5843,7 @@
         <v>255</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>250</v>
@@ -5856,7 +5863,7 @@
       <c r="J171" s="11"/>
       <c r="K171" s="20"/>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A172" s="23">
         <f>EDATE(A170,1)</f>
         <v>38626</v>
@@ -5883,7 +5890,7 @@
         <v>38666</v>
       </c>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A173" s="23">
         <f t="shared" si="1"/>
         <v>38657</v>
@@ -5910,7 +5917,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A174" s="23">
         <f t="shared" si="1"/>
         <v>38687</v>
@@ -5937,7 +5944,7 @@
         <v>38395</v>
       </c>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A175" s="23"/>
       <c r="B175" s="20" t="s">
         <v>110</v>
@@ -5959,7 +5966,7 @@
         <v>38576</v>
       </c>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A176" s="48" t="s">
         <v>66</v>
       </c>
@@ -5983,7 +5990,7 @@
       <c r="J176" s="11"/>
       <c r="K176" s="20"/>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A177" s="23">
         <f>EDATE(A174,1)</f>
         <v>38718</v>
@@ -6008,7 +6015,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A178" s="23"/>
       <c r="B178" s="20" t="s">
         <v>135</v>
@@ -6027,7 +6034,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A179" s="23"/>
       <c r="B179" s="20" t="s">
         <v>258</v>
@@ -6044,7 +6051,7 @@
       <c r="J179" s="11"/>
       <c r="K179" s="20"/>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A180" s="23">
         <f>EDATE(A177,1)</f>
         <v>38749</v>
@@ -6071,7 +6078,7 @@
         <v>38505</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A181" s="23">
         <f t="shared" si="1"/>
         <v>38777</v>
@@ -6096,7 +6103,7 @@
       <c r="J181" s="11"/>
       <c r="K181" s="20"/>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A182" s="23">
         <f t="shared" si="1"/>
         <v>38808</v>
@@ -6121,7 +6128,7 @@
         <v>265</v>
       </c>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A183" s="23"/>
       <c r="B183" s="20" t="s">
         <v>110</v>
@@ -6140,7 +6147,7 @@
         <v>38841</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>113</v>
@@ -6159,7 +6166,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A185" s="23"/>
       <c r="B185" s="20" t="s">
         <v>203</v>
@@ -6178,7 +6185,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>110</v>
@@ -6197,7 +6204,7 @@
         <v>38842</v>
       </c>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A187" s="23">
         <f>EDATE(A182,1)</f>
         <v>38838</v>
@@ -6222,7 +6229,7 @@
       <c r="J187" s="11"/>
       <c r="K187" s="20"/>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A188" s="23">
         <f t="shared" si="1"/>
         <v>38869</v>
@@ -6249,7 +6256,7 @@
         <v>38966</v>
       </c>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A189" s="23"/>
       <c r="B189" s="20" t="s">
         <v>113</v>
@@ -6271,7 +6278,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A190" s="23"/>
       <c r="B190" s="20" t="s">
         <v>263</v>
@@ -6291,7 +6298,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A191" s="23">
         <f>EDATE(A188,1)</f>
         <v>38899</v>
@@ -6318,7 +6325,7 @@
         <v>38814</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A192" s="23">
         <f t="shared" si="1"/>
         <v>38930</v>
@@ -6345,7 +6352,7 @@
         <v>269</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>112</v>
@@ -6365,7 +6372,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A194" s="23">
         <f>EDATE(A192,1)</f>
         <v>38961</v>
@@ -6392,7 +6399,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A195" s="23"/>
       <c r="B195" s="20" t="s">
         <v>201</v>
@@ -6412,7 +6419,7 @@
       <c r="J195" s="11"/>
       <c r="K195" s="20"/>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A196" s="23">
         <f>EDATE(A194,1)</f>
         <v>38991</v>
@@ -6437,7 +6444,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A197" s="23">
         <f t="shared" si="1"/>
         <v>39022</v>
@@ -6464,7 +6471,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>78</v>
@@ -6486,7 +6493,7 @@
         <v>275</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>130</v>
@@ -6506,7 +6513,7 @@
       <c r="J199" s="11"/>
       <c r="K199" s="20"/>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A200" s="23">
         <f>EDATE(A197,1)</f>
         <v>39052</v>
@@ -6533,7 +6540,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A201" s="23"/>
       <c r="B201" s="20" t="s">
         <v>110</v>
@@ -6555,7 +6562,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A202" s="23"/>
       <c r="B202" s="20" t="s">
         <v>110</v>
@@ -6577,7 +6584,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A203" s="48" t="s">
         <v>67</v>
       </c>
@@ -6601,7 +6608,7 @@
       <c r="J203" s="11"/>
       <c r="K203" s="20"/>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A204" s="23">
         <f>EDATE(A200,1)</f>
         <v>39083</v>
@@ -6624,7 +6631,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A205" s="23"/>
       <c r="B205" s="20" t="s">
         <v>276</v>
@@ -6633,7 +6640,7 @@
       <c r="D205" s="39"/>
       <c r="E205" s="34">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>162.36180000000002</v>
+        <v>159.11180000000002</v>
       </c>
       <c r="F205" s="20"/>
       <c r="G205" s="13" t="str">
@@ -6643,12 +6650,12 @@
       <c r="H205" s="39"/>
       <c r="I205" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269</v>
+        <v>272.75</v>
       </c>
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A206" s="23">
         <f>EDATE(A204,1)</f>
         <v>39114</v>
@@ -6671,7 +6678,7 @@
       <c r="J206" s="11"/>
       <c r="K206" s="20"/>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>113</v>
@@ -6680,7 +6687,7 @@
       <c r="D207" s="39"/>
       <c r="E207" s="34">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>162.36180000000002</v>
+        <v>159.11180000000002</v>
       </c>
       <c r="F207" s="20"/>
       <c r="G207" s="13" t="str">
@@ -6690,12 +6697,12 @@
       <c r="H207" s="39"/>
       <c r="I207" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269</v>
+        <v>272.75</v>
       </c>
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A208" s="23"/>
       <c r="B208" s="20" t="s">
         <v>112</v>
@@ -6704,7 +6711,7 @@
       <c r="D208" s="39"/>
       <c r="E208" s="34">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>162.36180000000002</v>
+        <v>159.11180000000002</v>
       </c>
       <c r="F208" s="20"/>
       <c r="G208" s="13" t="str">
@@ -6714,12 +6721,12 @@
       <c r="H208" s="39"/>
       <c r="I208" s="34">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>269</v>
+        <v>272.75</v>
       </c>
       <c r="J208" s="11"/>
       <c r="K208" s="20"/>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A209" s="23">
         <f>EDATE(A206,1)</f>
         <v>39142</v>
@@ -6746,7 +6753,7 @@
         <v>282</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>113</v>
@@ -6763,7 +6770,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A211" s="23"/>
       <c r="B211" s="20" t="s">
         <v>110</v>
@@ -6780,7 +6787,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>112</v>
@@ -6797,7 +6804,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A213" s="23">
         <f>EDATE(A209,1)</f>
         <v>39173</v>
@@ -6824,7 +6831,7 @@
         <v>39420</v>
       </c>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A214" s="23"/>
       <c r="B214" s="20" t="s">
         <v>134</v>
@@ -6843,7 +6850,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A215" s="23"/>
       <c r="B215" s="20" t="s">
         <v>137</v>
@@ -6862,7 +6869,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A216" s="23">
         <f>EDATE(A213,1)</f>
         <v>39203</v>
@@ -6889,7 +6896,7 @@
         <v>39360</v>
       </c>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A217" s="23"/>
       <c r="B217" s="20" t="s">
         <v>113</v>
@@ -6908,7 +6915,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A218" s="23"/>
       <c r="B218" s="20" t="s">
         <v>283</v>
@@ -6925,7 +6932,7 @@
       <c r="J218" s="11"/>
       <c r="K218" s="20"/>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A219" s="23">
         <f>EDATE(A216,1)</f>
         <v>39234</v>
@@ -6952,7 +6959,7 @@
         <v>39422</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>110</v>
@@ -6971,7 +6978,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A221" s="23">
         <f>EDATE(A219,1)</f>
         <v>39264</v>
@@ -6996,7 +7003,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A222" s="23">
         <f t="shared" si="1"/>
         <v>39295</v>
@@ -7021,7 +7028,7 @@
       <c r="J222" s="11"/>
       <c r="K222" s="20"/>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A223" s="23">
         <f t="shared" si="1"/>
         <v>39326</v>
@@ -7048,7 +7055,7 @@
         <v>39123</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>287</v>
@@ -7065,7 +7072,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A225" s="23">
         <f>EDATE(A223,1)</f>
         <v>39356</v>
@@ -7092,7 +7099,7 @@
         <v>39304</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>78</v>
@@ -7111,7 +7118,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A227" s="23"/>
       <c r="B227" s="20" t="s">
         <v>288</v>
@@ -7128,7 +7135,7 @@
       <c r="J227" s="11"/>
       <c r="K227" s="20"/>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A228" s="23">
         <f>EDATE(A225,1)</f>
         <v>39387</v>
@@ -7153,7 +7160,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>290</v>
@@ -7170,7 +7177,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A230" s="23">
         <f>EDATE(A228,1)</f>
         <v>39417</v>
@@ -7195,7 +7202,7 @@
       <c r="J230" s="11"/>
       <c r="K230" s="20"/>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A231" s="48" t="s">
         <v>68</v>
       </c>
@@ -7215,7 +7222,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A232" s="23">
         <f>EDATE(A230,1)</f>
         <v>39448</v>
@@ -7240,7 +7247,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A233" s="23">
         <f t="shared" si="1"/>
         <v>39479</v>
@@ -7267,7 +7274,7 @@
         <v>292</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>293</v>
@@ -7284,7 +7291,7 @@
       <c r="J234" s="11"/>
       <c r="K234" s="20"/>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A235" s="23">
         <f>EDATE(A233,1)</f>
         <v>39508</v>
@@ -7311,7 +7318,7 @@
         <v>39541</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>112</v>
@@ -7328,7 +7335,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A237" s="23">
         <f>EDATE(A235,1)</f>
         <v>39539</v>
@@ -7355,7 +7362,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A238" s="23"/>
       <c r="B238" s="20" t="s">
         <v>110</v>
@@ -7374,7 +7381,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A239" s="23"/>
       <c r="B239" s="20" t="s">
         <v>130</v>
@@ -7391,7 +7398,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A240" s="23">
         <f>EDATE(A237,1)</f>
         <v>39569</v>
@@ -7418,7 +7425,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A241" s="23"/>
       <c r="B241" s="20" t="s">
         <v>110</v>
@@ -7437,7 +7444,7 @@
         <v>39787</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A242" s="23"/>
       <c r="B242" s="20" t="s">
         <v>112</v>
@@ -7454,7 +7461,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A243" s="23"/>
       <c r="B243" s="20" t="s">
         <v>110</v>
@@ -7473,7 +7480,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A244" s="23"/>
       <c r="B244" s="20" t="s">
         <v>78</v>
@@ -7492,7 +7499,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A245" s="23"/>
       <c r="B245" s="20" t="s">
         <v>110</v>
@@ -7511,7 +7518,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A246" s="23"/>
       <c r="B246" s="20" t="s">
         <v>130</v>
@@ -7528,7 +7535,7 @@
       <c r="J246" s="11"/>
       <c r="K246" s="20"/>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A247" s="23">
         <f>EDATE(A240,1)</f>
         <v>39600</v>
@@ -7555,7 +7562,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>302</v>
@@ -7572,7 +7579,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A249" s="23">
         <f>EDATE(A247,1)</f>
         <v>39630</v>
@@ -7593,7 +7600,7 @@
       <c r="J249" s="11"/>
       <c r="K249" s="20"/>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A250" s="23">
         <f t="shared" si="1"/>
         <v>39661</v>
@@ -7620,7 +7627,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>305</v>
@@ -7637,7 +7644,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A252" s="23">
         <f>EDATE(A250,1)</f>
         <v>39692</v>
@@ -7664,7 +7671,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A253" s="23"/>
       <c r="B253" s="20" t="s">
         <v>110</v>
@@ -7683,7 +7690,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A254" s="23"/>
       <c r="B254" s="20" t="s">
         <v>133</v>
@@ -7703,7 +7710,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A255" s="23">
         <f>EDATE(A252,1)</f>
         <v>39722</v>
@@ -7730,7 +7737,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>110</v>
@@ -7749,7 +7756,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A257" s="23"/>
       <c r="B257" s="20" t="s">
         <v>78</v>
@@ -7768,7 +7775,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A258" s="23"/>
       <c r="B258" s="20" t="s">
         <v>112</v>
@@ -7785,7 +7792,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A259" s="23"/>
       <c r="B259" s="20" t="s">
         <v>136</v>
@@ -7805,7 +7812,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A260" s="23">
         <f>EDATE(A255,1)</f>
         <v>39753</v>
@@ -7832,7 +7839,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A261" s="23"/>
       <c r="B261" s="20" t="s">
         <v>137</v>
@@ -7851,7 +7858,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>78</v>
@@ -7870,7 +7877,7 @@
         <v>146</v>
       </c>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A263" s="23"/>
       <c r="B263" s="20" t="s">
         <v>138</v>
@@ -7887,7 +7894,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A264" s="23">
         <f>EDATE(A260,1)</f>
         <v>39783</v>
@@ -7908,7 +7915,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A265" s="48" t="s">
         <v>69</v>
       </c>
@@ -7932,7 +7939,7 @@
       <c r="J265" s="11"/>
       <c r="K265" s="20"/>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A266" s="23">
         <f>EDATE(A264,1)</f>
         <v>39814</v>
@@ -7957,7 +7964,7 @@
       <c r="J266" s="11"/>
       <c r="K266" s="20"/>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A267" s="23">
         <f t="shared" si="1"/>
         <v>39845</v>
@@ -7982,7 +7989,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A268" s="23">
         <f t="shared" si="1"/>
         <v>39873</v>
@@ -8009,7 +8016,7 @@
         <v>40089</v>
       </c>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A269" s="23"/>
       <c r="B269" s="20" t="s">
         <v>78</v>
@@ -8029,7 +8036,7 @@
         <v>39817</v>
       </c>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A270" s="23"/>
       <c r="B270" s="20" t="s">
         <v>112</v>
@@ -8049,7 +8056,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A271" s="23">
         <f>EDATE(A268,1)</f>
         <v>39904</v>
@@ -8076,7 +8083,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A272" s="23"/>
       <c r="B272" s="20" t="s">
         <v>110</v>
@@ -8098,7 +8105,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>111</v>
@@ -8118,7 +8125,7 @@
       <c r="J273" s="11"/>
       <c r="K273" s="20"/>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A274" s="23">
         <f>EDATE(A271,1)</f>
         <v>39934</v>
@@ -8143,7 +8150,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A275" s="23">
         <f t="shared" si="1"/>
         <v>39965</v>
@@ -8170,7 +8177,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A276" s="23">
         <f t="shared" si="1"/>
         <v>39995</v>
@@ -8195,7 +8202,7 @@
       <c r="J276" s="11"/>
       <c r="K276" s="20"/>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A277" s="23">
         <f t="shared" si="1"/>
         <v>40026</v>
@@ -8220,7 +8227,7 @@
       <c r="J277" s="11"/>
       <c r="K277" s="20"/>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A278" s="23">
         <f t="shared" si="1"/>
         <v>40057</v>
@@ -8245,7 +8252,7 @@
       <c r="J278" s="11"/>
       <c r="K278" s="20"/>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A279" s="23">
         <f t="shared" si="1"/>
         <v>40087</v>
@@ -8270,7 +8277,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A280" s="23">
         <f t="shared" si="1"/>
         <v>40118</v>
@@ -8295,7 +8302,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A281" s="23">
         <f t="shared" si="1"/>
         <v>40148</v>
@@ -8320,7 +8327,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A282" s="23"/>
       <c r="B282" s="20" t="s">
         <v>78</v>
@@ -8340,7 +8347,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A283" s="48" t="s">
         <v>70</v>
       </c>
@@ -8360,7 +8367,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A284" s="23">
         <f>EDATE(A281,1)</f>
         <v>40179</v>
@@ -8389,7 +8396,7 @@
       <c r="J284" s="11"/>
       <c r="K284" s="20"/>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A285" s="23">
         <f t="shared" si="1"/>
         <v>40210</v>
@@ -8414,7 +8421,7 @@
       <c r="J285" s="11"/>
       <c r="K285" s="20"/>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A286" s="23">
         <f t="shared" si="1"/>
         <v>40238</v>
@@ -8439,7 +8446,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A287" s="23">
         <f t="shared" ref="A287:A358" si="2">EDATE(A286,1)</f>
         <v>40269</v>
@@ -8464,7 +8471,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A288" s="23">
         <f t="shared" si="2"/>
         <v>40299</v>
@@ -8489,7 +8496,7 @@
       <c r="J288" s="11"/>
       <c r="K288" s="20"/>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A289" s="23">
         <f t="shared" si="2"/>
         <v>40330</v>
@@ -8514,7 +8521,7 @@
       <c r="J289" s="11"/>
       <c r="K289" s="20"/>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A290" s="23">
         <f t="shared" si="2"/>
         <v>40360</v>
@@ -8539,7 +8546,7 @@
       <c r="J290" s="11"/>
       <c r="K290" s="20"/>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A291" s="23">
         <f t="shared" si="2"/>
         <v>40391</v>
@@ -8564,7 +8571,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A292" s="23">
         <f t="shared" si="2"/>
         <v>40422</v>
@@ -8589,7 +8596,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A293" s="23">
         <f t="shared" si="2"/>
         <v>40452</v>
@@ -8610,7 +8617,7 @@
       <c r="J293" s="11"/>
       <c r="K293" s="20"/>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A294" s="23">
         <f t="shared" si="2"/>
         <v>40483</v>
@@ -8635,7 +8642,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A295" s="23">
         <f t="shared" si="2"/>
         <v>40513</v>
@@ -8660,7 +8667,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A296" s="23"/>
       <c r="B296" s="20" t="s">
         <v>81</v>
@@ -8677,7 +8684,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A297" s="48" t="s">
         <v>71</v>
       </c>
@@ -8701,7 +8708,7 @@
       <c r="J297" s="11"/>
       <c r="K297" s="20"/>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A298" s="23">
         <f>EDATE(A295,1)</f>
         <v>40544</v>
@@ -8726,7 +8733,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A299" s="23">
         <f t="shared" si="2"/>
         <v>40575</v>
@@ -8751,7 +8758,7 @@
       <c r="J299" s="11"/>
       <c r="K299" s="20"/>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A300" s="23">
         <f t="shared" si="2"/>
         <v>40603</v>
@@ -8776,7 +8783,7 @@
       <c r="J300" s="11"/>
       <c r="K300" s="20"/>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A301" s="23">
         <f t="shared" si="2"/>
         <v>40634</v>
@@ -8801,7 +8808,7 @@
       <c r="J301" s="11"/>
       <c r="K301" s="20"/>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A302" s="23">
         <f t="shared" si="2"/>
         <v>40664</v>
@@ -8826,7 +8833,7 @@
       <c r="J302" s="11"/>
       <c r="K302" s="20"/>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A303" s="23">
         <f t="shared" si="2"/>
         <v>40695</v>
@@ -8847,7 +8854,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A304" s="23">
         <f t="shared" si="2"/>
         <v>40725</v>
@@ -8868,7 +8875,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A305" s="23">
         <f t="shared" si="2"/>
         <v>40756</v>
@@ -8889,7 +8896,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A306" s="23">
         <f t="shared" si="2"/>
         <v>40787</v>
@@ -8910,7 +8917,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A307" s="23">
         <f t="shared" si="2"/>
         <v>40817</v>
@@ -8931,7 +8938,7 @@
       <c r="J307" s="11"/>
       <c r="K307" s="20"/>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A308" s="23">
         <f t="shared" si="2"/>
         <v>40848</v>
@@ -8956,7 +8963,7 @@
       <c r="J308" s="11"/>
       <c r="K308" s="20"/>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A309" s="23">
         <f t="shared" si="2"/>
         <v>40878</v>
@@ -8981,7 +8988,7 @@
       <c r="J309" s="11"/>
       <c r="K309" s="20"/>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>81</v>
@@ -9001,7 +9008,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A311" s="48" t="s">
         <v>72</v>
       </c>
@@ -9025,7 +9032,7 @@
       <c r="J311" s="11"/>
       <c r="K311" s="20"/>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A312" s="23">
         <f>EDATE(A309,1)</f>
         <v>40909</v>
@@ -9052,7 +9059,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A313" s="23">
         <f t="shared" si="2"/>
         <v>40940</v>
@@ -9073,7 +9080,7 @@
       <c r="J313" s="11"/>
       <c r="K313" s="20"/>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A314" s="23">
         <f t="shared" si="2"/>
         <v>40969</v>
@@ -9094,7 +9101,7 @@
       <c r="J314" s="11"/>
       <c r="K314" s="20"/>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A315" s="23">
         <f t="shared" si="2"/>
         <v>41000</v>
@@ -9115,7 +9122,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A316" s="23">
         <f t="shared" si="2"/>
         <v>41030</v>
@@ -9136,7 +9143,7 @@
       <c r="J316" s="11"/>
       <c r="K316" s="20"/>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A317" s="23">
         <f t="shared" si="2"/>
         <v>41061</v>
@@ -9157,7 +9164,7 @@
       <c r="J317" s="11"/>
       <c r="K317" s="20"/>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A318" s="23">
         <f t="shared" si="2"/>
         <v>41091</v>
@@ -9178,7 +9185,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A319" s="23">
         <f t="shared" si="2"/>
         <v>41122</v>
@@ -9199,7 +9206,7 @@
       <c r="J319" s="11"/>
       <c r="K319" s="20"/>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A320" s="23">
         <f t="shared" si="2"/>
         <v>41153</v>
@@ -9220,7 +9227,7 @@
       <c r="J320" s="11"/>
       <c r="K320" s="20"/>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A321" s="23">
         <f t="shared" si="2"/>
         <v>41183</v>
@@ -9241,7 +9248,7 @@
       <c r="J321" s="11"/>
       <c r="K321" s="20"/>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A322" s="23">
         <f t="shared" si="2"/>
         <v>41214</v>
@@ -9262,7 +9269,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A323" s="23">
         <f t="shared" si="2"/>
         <v>41244</v>
@@ -9287,7 +9294,7 @@
       <c r="J323" s="11"/>
       <c r="K323" s="20"/>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A324" s="48" t="s">
         <v>73</v>
       </c>
@@ -9311,7 +9318,7 @@
       <c r="J324" s="11"/>
       <c r="K324" s="20"/>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A325" s="23">
         <f>EDATE(A323,1)</f>
         <v>41275</v>
@@ -9332,7 +9339,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A326" s="23">
         <f>EDATE(A325,1)</f>
         <v>41306</v>
@@ -9353,7 +9360,7 @@
       <c r="J326" s="11"/>
       <c r="K326" s="20"/>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A327" s="23">
         <f t="shared" si="2"/>
         <v>41334</v>
@@ -9378,7 +9385,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A328" s="23">
         <f t="shared" si="2"/>
         <v>41365</v>
@@ -9399,7 +9406,7 @@
       <c r="J328" s="11"/>
       <c r="K328" s="20"/>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A329" s="23">
         <f t="shared" si="2"/>
         <v>41395</v>
@@ -9420,7 +9427,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A330" s="23">
         <f t="shared" si="2"/>
         <v>41426</v>
@@ -9445,7 +9452,7 @@
       <c r="J330" s="11"/>
       <c r="K330" s="20"/>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A331" s="23">
         <f t="shared" si="2"/>
         <v>41456</v>
@@ -9470,7 +9477,7 @@
       <c r="J331" s="11"/>
       <c r="K331" s="20"/>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A332" s="23">
         <f t="shared" si="2"/>
         <v>41487</v>
@@ -9495,7 +9502,7 @@
       <c r="J332" s="11"/>
       <c r="K332" s="20"/>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A333" s="23">
         <f t="shared" si="2"/>
         <v>41518</v>
@@ -9516,7 +9523,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A334" s="23">
         <f t="shared" si="2"/>
         <v>41548</v>
@@ -9541,7 +9548,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A335" s="23">
         <f t="shared" si="2"/>
         <v>41579</v>
@@ -9562,7 +9569,7 @@
       <c r="J335" s="11"/>
       <c r="K335" s="20"/>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A336" s="23">
         <f t="shared" si="2"/>
         <v>41609</v>
@@ -9587,7 +9594,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A337" s="48" t="s">
         <v>74</v>
       </c>
@@ -9611,7 +9618,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A338" s="23">
         <f>EDATE(A336,1)</f>
         <v>41640</v>
@@ -9632,7 +9639,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A339" s="23">
         <f t="shared" si="2"/>
         <v>41671</v>
@@ -9653,7 +9660,7 @@
       <c r="J339" s="11"/>
       <c r="K339" s="20"/>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A340" s="23">
         <f t="shared" si="2"/>
         <v>41699</v>
@@ -9674,7 +9681,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A341" s="23">
         <f t="shared" si="2"/>
         <v>41730</v>
@@ -9699,7 +9706,7 @@
       <c r="J341" s="11"/>
       <c r="K341" s="20"/>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A342" s="23">
         <f t="shared" si="2"/>
         <v>41760</v>
@@ -9720,7 +9727,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A343" s="23">
         <f t="shared" si="2"/>
         <v>41791</v>
@@ -9741,7 +9748,7 @@
       <c r="J343" s="11"/>
       <c r="K343" s="20"/>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A344" s="23">
         <f t="shared" si="2"/>
         <v>41821</v>
@@ -9766,7 +9773,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A345" s="23">
         <f t="shared" si="2"/>
         <v>41852</v>
@@ -9787,7 +9794,7 @@
       <c r="J345" s="11"/>
       <c r="K345" s="20"/>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A346" s="23">
         <f t="shared" si="2"/>
         <v>41883</v>
@@ -9808,7 +9815,7 @@
       <c r="J346" s="11"/>
       <c r="K346" s="20"/>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A347" s="23">
         <f t="shared" si="2"/>
         <v>41913</v>
@@ -9829,7 +9836,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A348" s="23">
         <f t="shared" si="2"/>
         <v>41944</v>
@@ -9850,7 +9857,7 @@
       <c r="J348" s="11"/>
       <c r="K348" s="20"/>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A349" s="23">
         <f t="shared" si="2"/>
         <v>41974</v>
@@ -9875,7 +9882,7 @@
       <c r="J349" s="11"/>
       <c r="K349" s="20"/>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>81</v>
@@ -9895,7 +9902,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A351" s="48" t="s">
         <v>75</v>
       </c>
@@ -9917,7 +9924,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A352" s="23">
         <f>EDATE(A349,1)</f>
         <v>42005</v>
@@ -9942,7 +9949,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A353" s="23">
         <f t="shared" si="2"/>
         <v>42036</v>
@@ -9967,7 +9974,7 @@
       <c r="J353" s="11"/>
       <c r="K353" s="20"/>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A354" s="23">
         <f t="shared" si="2"/>
         <v>42064</v>
@@ -9992,7 +9999,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A355" s="23">
         <f t="shared" si="2"/>
         <v>42095</v>
@@ -10017,7 +10024,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A356" s="23">
         <f t="shared" si="2"/>
         <v>42125</v>
@@ -10042,7 +10049,7 @@
       <c r="J356" s="11"/>
       <c r="K356" s="20"/>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A357" s="23">
         <f t="shared" si="2"/>
         <v>42156</v>
@@ -10067,7 +10074,7 @@
       <c r="J357" s="11"/>
       <c r="K357" s="20"/>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A358" s="23">
         <f t="shared" si="2"/>
         <v>42186</v>
@@ -10088,7 +10095,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A359" s="23">
         <f t="shared" ref="A359:A389" si="3">EDATE(A358,1)</f>
         <v>42217</v>
@@ -10113,7 +10120,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A360" s="23">
         <f t="shared" si="3"/>
         <v>42248</v>
@@ -10138,7 +10145,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A361" s="23">
         <f t="shared" si="3"/>
         <v>42278</v>
@@ -10159,7 +10166,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A362" s="23">
         <f t="shared" si="3"/>
         <v>42309</v>
@@ -10180,7 +10187,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A363" s="23">
         <f t="shared" si="3"/>
         <v>42339</v>
@@ -10205,7 +10212,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A364" s="48" t="s">
         <v>76</v>
       </c>
@@ -10227,7 +10234,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>42370</v>
@@ -10248,7 +10255,7 @@
       <c r="J365" s="11"/>
       <c r="K365" s="20"/>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A366" s="23">
         <f t="shared" si="3"/>
         <v>42401</v>
@@ -10269,7 +10276,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A367" s="23">
         <f t="shared" si="3"/>
         <v>42430</v>
@@ -10290,7 +10297,7 @@
       <c r="J367" s="11"/>
       <c r="K367" s="20"/>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A368" s="23">
         <f t="shared" si="3"/>
         <v>42461</v>
@@ -10311,7 +10318,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A369" s="23">
         <f t="shared" si="3"/>
         <v>42491</v>
@@ -10332,7 +10339,7 @@
       <c r="J369" s="11"/>
       <c r="K369" s="20"/>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A370" s="23">
         <f t="shared" si="3"/>
         <v>42522</v>
@@ -10353,7 +10360,7 @@
       <c r="J370" s="11"/>
       <c r="K370" s="20"/>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A371" s="23">
         <f t="shared" si="3"/>
         <v>42552</v>
@@ -10374,7 +10381,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A372" s="23">
         <f t="shared" si="3"/>
         <v>42583</v>
@@ -10395,7 +10402,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A373" s="23">
         <f t="shared" si="3"/>
         <v>42614</v>
@@ -10416,7 +10423,7 @@
       <c r="J373" s="11"/>
       <c r="K373" s="20"/>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A374" s="23">
         <f t="shared" si="3"/>
         <v>42644</v>
@@ -10437,7 +10444,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A375" s="23">
         <f t="shared" si="3"/>
         <v>42675</v>
@@ -10458,7 +10465,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A376" s="23">
         <f t="shared" si="3"/>
         <v>42705</v>
@@ -10483,7 +10490,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A377" s="48" t="s">
         <v>77</v>
       </c>
@@ -10505,7 +10512,7 @@
       <c r="J377" s="11"/>
       <c r="K377" s="20"/>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A378" s="23">
         <f>EDATE(A376,1)</f>
         <v>42736</v>
@@ -10526,7 +10533,7 @@
       <c r="J378" s="11"/>
       <c r="K378" s="20"/>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A379" s="23">
         <f t="shared" si="3"/>
         <v>42767</v>
@@ -10547,7 +10554,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A380" s="23">
         <f t="shared" si="3"/>
         <v>42795</v>
@@ -10568,7 +10575,7 @@
       <c r="J380" s="11"/>
       <c r="K380" s="20"/>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A381" s="23">
         <f t="shared" si="3"/>
         <v>42826</v>
@@ -10589,7 +10596,7 @@
       <c r="J381" s="11"/>
       <c r="K381" s="20"/>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A382" s="23">
         <f t="shared" si="3"/>
         <v>42856</v>
@@ -10610,7 +10617,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A383" s="23">
         <f t="shared" si="3"/>
         <v>42887</v>
@@ -10631,7 +10638,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A384" s="23">
         <f t="shared" si="3"/>
         <v>42917</v>
@@ -10652,7 +10659,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A385" s="23">
         <f t="shared" si="3"/>
         <v>42948</v>
@@ -10679,7 +10686,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A386" s="23">
         <f t="shared" si="3"/>
         <v>42979</v>
@@ -10700,7 +10707,7 @@
       <c r="J386" s="11"/>
       <c r="K386" s="20"/>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A387" s="23">
         <f t="shared" si="3"/>
         <v>43009</v>
@@ -10721,7 +10728,7 @@
       <c r="J387" s="11"/>
       <c r="K387" s="20"/>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A388" s="23">
         <f t="shared" si="3"/>
         <v>43040</v>
@@ -10742,7 +10749,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A389" s="23">
         <f t="shared" si="3"/>
         <v>43070</v>
@@ -10767,7 +10774,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A390" s="48" t="s">
         <v>47</v>
       </c>
@@ -10791,7 +10798,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A391" s="40">
         <v>43101</v>
       </c>
@@ -10813,7 +10820,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A392" s="40">
         <v>43132</v>
       </c>
@@ -10839,7 +10846,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A393" s="40"/>
       <c r="B393" s="20" t="s">
         <v>49</v>
@@ -10861,7 +10868,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A394" s="40">
         <v>43160</v>
       </c>
@@ -10881,7 +10888,7 @@
       <c r="J394" s="11"/>
       <c r="K394" s="20"/>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A395" s="40">
         <v>43191</v>
       </c>
@@ -10901,7 +10908,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A396" s="41">
         <v>43221</v>
       </c>
@@ -10921,7 +10928,7 @@
       <c r="J396" s="12"/>
       <c r="K396" s="15"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A397" s="40">
         <v>43252</v>
       </c>
@@ -10941,7 +10948,7 @@
       <c r="J397" s="11"/>
       <c r="K397" s="20"/>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A398" s="40">
         <v>43282</v>
       </c>
@@ -10961,7 +10968,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A399" s="40">
         <v>43313</v>
       </c>
@@ -10981,7 +10988,7 @@
       <c r="J399" s="11"/>
       <c r="K399" s="20"/>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A400" s="40">
         <v>43344</v>
       </c>
@@ -11001,7 +11008,7 @@
       <c r="J400" s="11"/>
       <c r="K400" s="20"/>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A401" s="40">
         <v>43374</v>
       </c>
@@ -11021,7 +11028,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A402" s="40">
         <v>43405</v>
       </c>
@@ -11041,7 +11048,7 @@
       <c r="J402" s="11"/>
       <c r="K402" s="20"/>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A403" s="40">
         <v>43435</v>
       </c>
@@ -11065,7 +11072,7 @@
       <c r="J403" s="11"/>
       <c r="K403" s="20"/>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A404" s="23" t="s">
         <v>53</v>
       </c>
@@ -11083,7 +11090,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A405" s="40">
         <v>43466</v>
       </c>
@@ -11103,7 +11110,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A406" s="40">
         <v>43497</v>
       </c>
@@ -11123,7 +11130,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A407" s="40"/>
       <c r="B407" s="20"/>
       <c r="C407" s="13"/>
@@ -11139,7 +11146,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A408" s="40">
         <v>43525</v>
       </c>
@@ -11159,7 +11166,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A409" s="40">
         <v>43556</v>
       </c>
@@ -11179,7 +11186,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A410" s="41">
         <v>43586</v>
       </c>
@@ -11199,7 +11206,7 @@
       <c r="J410" s="11"/>
       <c r="K410" s="20"/>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A411" s="40">
         <v>43617</v>
       </c>
@@ -11219,7 +11226,7 @@
       <c r="J411" s="11"/>
       <c r="K411" s="20"/>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A412" s="40">
         <v>43647</v>
       </c>
@@ -11239,7 +11246,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A413" s="40">
         <v>43678</v>
       </c>
@@ -11259,7 +11266,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A414" s="40">
         <v>43709</v>
       </c>
@@ -11279,7 +11286,7 @@
       <c r="J414" s="11"/>
       <c r="K414" s="20"/>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A415" s="40">
         <v>43739</v>
       </c>
@@ -11299,7 +11306,7 @@
       <c r="J415" s="11"/>
       <c r="K415" s="20"/>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A416" s="40">
         <v>43770</v>
       </c>
@@ -11319,7 +11326,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A417" s="40">
         <v>43800</v>
       </c>
@@ -11343,7 +11350,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A418" s="48" t="s">
         <v>54</v>
       </c>
@@ -11361,7 +11368,7 @@
       <c r="J418" s="11"/>
       <c r="K418" s="20"/>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A419" s="40">
         <v>43831</v>
       </c>
@@ -11381,7 +11388,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A420" s="40">
         <v>43862</v>
       </c>
@@ -11401,7 +11408,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A421" s="40">
         <v>43891</v>
       </c>
@@ -11421,7 +11428,7 @@
       <c r="J421" s="11"/>
       <c r="K421" s="20"/>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A422" s="40">
         <v>43922</v>
       </c>
@@ -11441,7 +11448,7 @@
       <c r="J422" s="11"/>
       <c r="K422" s="20"/>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A423" s="40">
         <v>43952</v>
       </c>
@@ -11461,7 +11468,7 @@
       <c r="J423" s="11"/>
       <c r="K423" s="20"/>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A424" s="40">
         <v>43983</v>
       </c>
@@ -11481,7 +11488,7 @@
       <c r="J424" s="11"/>
       <c r="K424" s="20"/>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A425" s="40">
         <v>44013</v>
       </c>
@@ -11501,7 +11508,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A426" s="40">
         <v>44044</v>
       </c>
@@ -11521,7 +11528,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A427" s="40">
         <v>44075</v>
       </c>
@@ -11541,7 +11548,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A428" s="40">
         <v>44105</v>
       </c>
@@ -11561,7 +11568,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A429" s="40">
         <v>44136</v>
       </c>
@@ -11581,7 +11588,7 @@
       <c r="J429" s="11"/>
       <c r="K429" s="20"/>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A430" s="40">
         <v>44166</v>
       </c>
@@ -11605,7 +11612,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A431" s="48" t="s">
         <v>55</v>
       </c>
@@ -11623,7 +11630,7 @@
       <c r="J431" s="11"/>
       <c r="K431" s="20"/>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A432" s="40">
         <v>44197</v>
       </c>
@@ -11643,7 +11650,7 @@
       <c r="J432" s="11"/>
       <c r="K432" s="20"/>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A433" s="40">
         <v>44228</v>
       </c>
@@ -11663,7 +11670,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A434" s="40">
         <v>44256</v>
       </c>
@@ -11683,7 +11690,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A435" s="40">
         <v>44287</v>
       </c>
@@ -11703,7 +11710,7 @@
       <c r="J435" s="11"/>
       <c r="K435" s="20"/>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A436" s="40">
         <v>44317</v>
       </c>
@@ -11723,7 +11730,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A437" s="40">
         <v>44348</v>
       </c>
@@ -11743,7 +11750,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A438" s="40">
         <v>44378</v>
       </c>
@@ -11763,7 +11770,7 @@
       <c r="J438" s="11"/>
       <c r="K438" s="20"/>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A439" s="40">
         <v>44409</v>
       </c>
@@ -11789,7 +11796,7 @@
         <v>11390</v>
       </c>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A440" s="40">
         <v>44440</v>
       </c>
@@ -11809,7 +11816,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A441" s="40">
         <v>44470</v>
       </c>
@@ -11829,7 +11836,7 @@
       <c r="J441" s="11"/>
       <c r="K441" s="20"/>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A442" s="40">
         <v>44501</v>
       </c>
@@ -11849,7 +11856,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A443" s="40">
         <v>44531</v>
       </c>
@@ -11873,7 +11880,7 @@
       <c r="J443" s="11"/>
       <c r="K443" s="20"/>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A444" s="48" t="s">
         <v>57</v>
       </c>
@@ -11891,7 +11898,7 @@
       <c r="J444" s="11"/>
       <c r="K444" s="20"/>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A445" s="40">
         <v>44562</v>
       </c>
@@ -11911,7 +11918,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A446" s="40">
         <v>44593</v>
       </c>
@@ -11931,7 +11938,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A447" s="40">
         <v>44621</v>
       </c>
@@ -11951,7 +11958,7 @@
       <c r="J447" s="11"/>
       <c r="K447" s="20"/>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A448" s="40">
         <v>44652</v>
       </c>
@@ -11971,7 +11978,7 @@
       <c r="J448" s="11"/>
       <c r="K448" s="20"/>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A449" s="40">
         <v>44682</v>
       </c>
@@ -11991,7 +11998,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A450" s="40">
         <v>44713</v>
       </c>
@@ -12011,7 +12018,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A451" s="40">
         <v>44743</v>
       </c>
@@ -12031,7 +12038,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A452" s="40">
         <v>44774</v>
       </c>
@@ -12057,7 +12064,7 @@
         <v>44873</v>
       </c>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A453" s="40">
         <v>44834</v>
       </c>
@@ -12081,7 +12088,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A454" s="40">
         <v>44865</v>
       </c>
@@ -12101,7 +12108,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A455" s="40">
         <v>44895</v>
       </c>
@@ -12121,7 +12128,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A456" s="40">
         <v>44926</v>
       </c>
@@ -12145,7 +12152,7 @@
       <c r="J456" s="11"/>
       <c r="K456" s="20"/>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A457" s="48" t="s">
         <v>307</v>
       </c>
@@ -12163,7 +12170,7 @@
       <c r="J457" s="11"/>
       <c r="K457" s="20"/>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A458" s="40">
         <v>44957</v>
       </c>
@@ -12183,7 +12190,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A459" s="40">
         <v>44985</v>
       </c>
@@ -12203,7 +12210,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A460" s="40">
         <v>45016</v>
       </c>
@@ -12223,7 +12230,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A461" s="40">
         <v>45046</v>
       </c>
@@ -12243,7 +12250,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A462" s="40">
         <v>45077</v>
       </c>
@@ -12263,7 +12270,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A463" s="40">
         <v>45107</v>
       </c>
@@ -12283,7 +12290,7 @@
       <c r="J463" s="11"/>
       <c r="K463" s="20"/>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A464" s="40">
         <v>45138</v>
       </c>
@@ -12303,7 +12310,7 @@
       <c r="J464" s="11"/>
       <c r="K464" s="20"/>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A465" s="40">
         <v>45169</v>
       </c>
@@ -12329,61 +12336,73 @@
         <v>309</v>
       </c>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A466" s="40">
         <v>45199</v>
       </c>
       <c r="B466" s="20"/>
-      <c r="C466" s="13"/>
+      <c r="C466" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D466" s="39"/>
       <c r="E466" s="9"/>
       <c r="F466" s="20"/>
-      <c r="G466" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G466" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H466" s="39"/>
       <c r="I466" s="9"/>
       <c r="J466" s="11"/>
       <c r="K466" s="20"/>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A467" s="40">
         <v>45230</v>
       </c>
       <c r="B467" s="20"/>
-      <c r="C467" s="13"/>
+      <c r="C467" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D467" s="39"/>
       <c r="E467" s="9"/>
       <c r="F467" s="20"/>
-      <c r="G467" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G467" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H467" s="39"/>
       <c r="I467" s="9"/>
       <c r="J467" s="11"/>
       <c r="K467" s="20"/>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A468" s="40">
         <v>45260</v>
       </c>
-      <c r="B468" s="20"/>
-      <c r="C468" s="13"/>
-      <c r="D468" s="39"/>
+      <c r="B468" s="20" t="s">
+        <v>310</v>
+      </c>
+      <c r="C468" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D468" s="39">
+        <v>7</v>
+      </c>
       <c r="E468" s="9"/>
       <c r="F468" s="20"/>
-      <c r="G468" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G468" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H468" s="39"/>
       <c r="I468" s="9"/>
       <c r="J468" s="11"/>
-      <c r="K468" s="20"/>
-    </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K468" s="20" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A469" s="40">
         <v>45291</v>
       </c>
@@ -12401,7 +12420,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A470" s="40">
         <v>45322</v>
       </c>
@@ -12419,7 +12438,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A471" s="40">
         <v>45351</v>
       </c>
@@ -12437,7 +12456,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A472" s="40">
         <v>45382</v>
       </c>
@@ -12455,7 +12474,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A473" s="40">
         <v>45412</v>
       </c>
@@ -12473,7 +12492,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A474" s="40">
         <v>45443</v>
       </c>
@@ -12491,7 +12510,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A475" s="40">
         <v>45473</v>
       </c>
@@ -12509,7 +12528,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A476" s="40">
         <v>45504</v>
       </c>
@@ -12527,7 +12546,7 @@
       <c r="J476" s="11"/>
       <c r="K476" s="20"/>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A477" s="40">
         <v>45535</v>
       </c>
@@ -12545,7 +12564,7 @@
       <c r="J477" s="11"/>
       <c r="K477" s="20"/>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A478" s="40">
         <v>45565</v>
       </c>
@@ -12563,7 +12582,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A479" s="40">
         <v>45596</v>
       </c>
@@ -12581,7 +12600,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A480" s="40">
         <v>45626</v>
       </c>
@@ -12599,7 +12618,7 @@
       <c r="J480" s="11"/>
       <c r="K480" s="20"/>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A481" s="40">
         <v>45657</v>
       </c>
@@ -12617,7 +12636,7 @@
       <c r="J481" s="11"/>
       <c r="K481" s="20"/>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A482" s="40">
         <v>45688</v>
       </c>
@@ -12635,7 +12654,7 @@
       <c r="J482" s="11"/>
       <c r="K482" s="20"/>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A483" s="40">
         <v>45716</v>
       </c>
@@ -12653,7 +12672,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A484" s="40">
         <v>45747</v>
       </c>
@@ -12671,7 +12690,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A485" s="40">
         <v>45777</v>
       </c>
@@ -12689,7 +12708,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A486" s="40">
         <v>45808</v>
       </c>
@@ -12707,7 +12726,7 @@
       <c r="J486" s="11"/>
       <c r="K486" s="20"/>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A487" s="40">
         <v>45838</v>
       </c>
@@ -12725,7 +12744,7 @@
       <c r="J487" s="11"/>
       <c r="K487" s="20"/>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A488" s="40">
         <v>45869</v>
       </c>
@@ -12743,7 +12762,7 @@
       <c r="J488" s="11"/>
       <c r="K488" s="20"/>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A489" s="40">
         <v>45900</v>
       </c>
@@ -12761,7 +12780,7 @@
       <c r="J489" s="11"/>
       <c r="K489" s="20"/>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A490" s="40">
         <v>45930</v>
       </c>
@@ -12779,7 +12798,7 @@
       <c r="J490" s="11"/>
       <c r="K490" s="20"/>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A491" s="40">
         <v>45961</v>
       </c>
@@ -12797,7 +12816,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A492" s="40">
         <v>45991</v>
       </c>
@@ -12815,7 +12834,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A493" s="40">
         <v>46022</v>
       </c>
@@ -12833,7 +12852,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A494" s="40">
         <v>46053</v>
       </c>
@@ -12851,7 +12870,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A495" s="40">
         <v>46081</v>
       </c>
@@ -12869,7 +12888,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A496" s="40">
         <v>46112</v>
       </c>
@@ -12887,7 +12906,7 @@
       <c r="J496" s="11"/>
       <c r="K496" s="20"/>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A497" s="40">
         <v>46142</v>
       </c>
@@ -12905,7 +12924,7 @@
       <c r="J497" s="11"/>
       <c r="K497" s="20"/>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A498" s="40">
         <v>46173</v>
       </c>
@@ -12923,7 +12942,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A499" s="40">
         <v>46203</v>
       </c>
@@ -12941,7 +12960,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A500" s="40">
         <v>46234</v>
       </c>
@@ -12959,7 +12978,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A501" s="40">
         <v>46265</v>
       </c>
@@ -12977,7 +12996,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A502" s="40">
         <v>46295</v>
       </c>
@@ -12995,7 +13014,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A503" s="40">
         <v>46326</v>
       </c>
@@ -13013,7 +13032,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A504" s="40">
         <v>46356</v>
       </c>
@@ -13031,7 +13050,7 @@
       <c r="J504" s="11"/>
       <c r="K504" s="20"/>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A505" s="40">
         <v>46387</v>
       </c>
@@ -13049,7 +13068,7 @@
       <c r="J505" s="11"/>
       <c r="K505" s="20"/>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A506" s="40">
         <v>46418</v>
       </c>
@@ -13067,7 +13086,7 @@
       <c r="J506" s="11"/>
       <c r="K506" s="20"/>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A507" s="40">
         <v>46446</v>
       </c>
@@ -13085,7 +13104,7 @@
       <c r="J507" s="11"/>
       <c r="K507" s="20"/>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A508" s="40">
         <v>46477</v>
       </c>
@@ -13103,7 +13122,7 @@
       <c r="J508" s="11"/>
       <c r="K508" s="20"/>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A509" s="40">
         <v>46507</v>
       </c>
@@ -13121,7 +13140,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A510" s="40">
         <v>46538</v>
       </c>
@@ -13139,7 +13158,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A511" s="40">
         <v>46568</v>
       </c>
@@ -13173,10 +13192,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -13199,28 +13218,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="58" t="s">
         <v>33</v>
       </c>
@@ -13233,7 +13252,7 @@
       <c r="K1" s="59"/>
       <c r="L1" s="59"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -13262,7 +13281,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11">
@@ -13288,17 +13307,17 @@
         <v>---</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -13319,7 +13338,7 @@
       <c r="K6" s="60"/>
       <c r="L6" s="60"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -13346,7 +13365,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -13372,7 +13391,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -13398,7 +13417,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -13424,7 +13443,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -13450,7 +13469,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -13476,7 +13495,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -13502,7 +13521,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -13528,7 +13547,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -13548,7 +13567,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -13568,7 +13587,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -13588,7 +13607,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -13609,7 +13628,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -13630,7 +13649,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -13651,7 +13670,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -13672,7 +13691,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -13693,7 +13712,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -13714,7 +13733,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -13735,7 +13754,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -13756,7 +13775,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -13777,7 +13796,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -13798,7 +13817,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -13819,7 +13838,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -13840,7 +13859,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -13861,7 +13880,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -13882,7 +13901,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -13903,7 +13922,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -13924,7 +13943,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -13945,7 +13964,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -13966,7 +13985,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -13987,7 +14006,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -14008,7 +14027,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -14017,7 +14036,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -14026,7 +14045,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -14035,7 +14054,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -14044,7 +14063,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -14053,7 +14072,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -14062,7 +14081,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -14071,7 +14090,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -14080,7 +14099,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -14089,7 +14108,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -14098,7 +14117,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -14107,7 +14126,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -14116,7 +14135,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -14125,7 +14144,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -14134,7 +14153,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -14143,7 +14162,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -14152,7 +14171,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -14161,7 +14180,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -14170,7 +14189,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -14179,7 +14198,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -14188,7 +14207,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -14197,7 +14216,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -14206,7 +14225,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -14215,7 +14234,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -14224,7 +14243,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -14233,7 +14252,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -14242,7 +14261,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -14251,7 +14270,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -14260,7 +14279,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -14269,7 +14288,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>
